--- a/static/agree.xlsx
+++ b/static/agree.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63EEE278-896D-490D-B79E-2335F66102AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E6C268A-0F9D-4E60-B615-A40E0CACCE09}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -973,35 +973,35 @@
   </sheetPr>
   <dimension ref="A1:T52"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" customWidth="1"/>
-    <col min="2" max="2" width="4.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="7.109375" customWidth="1"/>
-    <col min="5" max="5" width="3.44140625" customWidth="1"/>
-    <col min="6" max="6" width="4.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="7.109375" customWidth="1"/>
-    <col min="9" max="9" width="3.44140625" customWidth="1"/>
-    <col min="10" max="10" width="4.33203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.109375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="7.109375" customWidth="1"/>
-    <col min="13" max="13" width="3.44140625" customWidth="1"/>
-    <col min="14" max="14" width="4.33203125" style="3" customWidth="1"/>
-    <col min="15" max="15" width="13.109375" style="2" customWidth="1"/>
-    <col min="16" max="16" width="7.109375" customWidth="1"/>
-    <col min="17" max="17" width="3.44140625" customWidth="1"/>
-    <col min="18" max="18" width="4.33203125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="13.109375" style="2" customWidth="1"/>
-    <col min="20" max="20" width="7.109375" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" customWidth="1"/>
+    <col min="5" max="5" width="3.42578125" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" customWidth="1"/>
+    <col min="9" max="9" width="3.42578125" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="7.140625" customWidth="1"/>
+    <col min="13" max="13" width="3.42578125" customWidth="1"/>
+    <col min="14" max="14" width="8.85546875" style="3" customWidth="1"/>
+    <col min="15" max="15" width="13.140625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="7.140625" customWidth="1"/>
+    <col min="17" max="17" width="3.42578125" customWidth="1"/>
+    <col min="18" max="18" width="8.85546875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="13.140625" style="2" customWidth="1"/>
+    <col min="20" max="20" width="7.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="4" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" s="4" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="51" t="s">
         <v>6</v>
       </c>
@@ -1025,7 +1025,7 @@
       <c r="S1" s="51"/>
       <c r="T1" s="51"/>
     </row>
-    <row r="2" spans="1:20" s="5" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" s="5" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -1087,7 +1087,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="11" customFormat="1" ht="10.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" s="11" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
         <v>1</v>
       </c>
@@ -1119,7 +1119,7 @@
       <c r="S3" s="18"/>
       <c r="T3" s="15"/>
     </row>
-    <row r="4" spans="1:20" s="11" customFormat="1" ht="10.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" s="11" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="19">
         <v>2</v>
       </c>
@@ -1151,7 +1151,7 @@
       <c r="S4" s="22"/>
       <c r="T4" s="20"/>
     </row>
-    <row r="5" spans="1:20" s="11" customFormat="1" ht="10.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" s="11" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="19">
         <v>3</v>
       </c>
@@ -1183,7 +1183,7 @@
       <c r="S5" s="22"/>
       <c r="T5" s="20"/>
     </row>
-    <row r="6" spans="1:20" s="11" customFormat="1" ht="10.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" s="11" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="24">
         <v>4</v>
       </c>
@@ -1215,7 +1215,7 @@
       <c r="S6" s="22"/>
       <c r="T6" s="20"/>
     </row>
-    <row r="7" spans="1:20" s="11" customFormat="1" ht="10.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" s="11" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="19">
         <v>5</v>
       </c>
@@ -1247,7 +1247,7 @@
       <c r="S7" s="22"/>
       <c r="T7" s="20"/>
     </row>
-    <row r="8" spans="1:20" s="11" customFormat="1" ht="10.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" s="11" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="19">
         <v>6</v>
       </c>
@@ -1279,7 +1279,7 @@
       <c r="S8" s="22"/>
       <c r="T8" s="20"/>
     </row>
-    <row r="9" spans="1:20" s="11" customFormat="1" ht="10.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" s="11" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="24">
         <v>7</v>
       </c>
@@ -1311,7 +1311,7 @@
       <c r="S9" s="22"/>
       <c r="T9" s="20"/>
     </row>
-    <row r="10" spans="1:20" s="11" customFormat="1" ht="10.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" s="11" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="19">
         <v>8</v>
       </c>
@@ -1343,7 +1343,7 @@
       <c r="S10" s="25"/>
       <c r="T10" s="20"/>
     </row>
-    <row r="11" spans="1:20" s="11" customFormat="1" ht="10.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" s="11" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="19">
         <v>9</v>
       </c>
@@ -1375,7 +1375,7 @@
       <c r="S11" s="22"/>
       <c r="T11" s="20"/>
     </row>
-    <row r="12" spans="1:20" s="11" customFormat="1" ht="10.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" s="11" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="24">
         <v>10</v>
       </c>
@@ -1407,7 +1407,7 @@
       <c r="S12" s="27"/>
       <c r="T12" s="20"/>
     </row>
-    <row r="13" spans="1:20" s="11" customFormat="1" ht="10.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" s="11" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="19">
         <v>11</v>
       </c>
@@ -1439,7 +1439,7 @@
       <c r="S13" s="28"/>
       <c r="T13" s="20"/>
     </row>
-    <row r="14" spans="1:20" s="11" customFormat="1" ht="10.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" s="11" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="19">
         <v>12</v>
       </c>
@@ -1471,7 +1471,7 @@
       <c r="S14" s="30"/>
       <c r="T14" s="20"/>
     </row>
-    <row r="15" spans="1:20" s="11" customFormat="1" ht="10.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" s="11" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="24">
         <v>13</v>
       </c>
@@ -1503,7 +1503,7 @@
       <c r="S15" s="32"/>
       <c r="T15" s="20"/>
     </row>
-    <row r="16" spans="1:20" s="11" customFormat="1" ht="10.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" s="11" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="19">
         <v>14</v>
       </c>
@@ -1535,7 +1535,7 @@
       <c r="S16" s="32"/>
       <c r="T16" s="20"/>
     </row>
-    <row r="17" spans="1:20" s="11" customFormat="1" ht="10.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" s="11" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="19">
         <v>15</v>
       </c>
@@ -1567,7 +1567,7 @@
       <c r="S17" s="32"/>
       <c r="T17" s="20"/>
     </row>
-    <row r="18" spans="1:20" s="11" customFormat="1" ht="10.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" s="11" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="24">
         <v>16</v>
       </c>
@@ -1599,7 +1599,7 @@
       <c r="S18" s="32"/>
       <c r="T18" s="20"/>
     </row>
-    <row r="19" spans="1:20" s="11" customFormat="1" ht="10.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" s="11" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="19">
         <v>17</v>
       </c>
@@ -1631,7 +1631,7 @@
       <c r="S19" s="32"/>
       <c r="T19" s="20"/>
     </row>
-    <row r="20" spans="1:20" s="11" customFormat="1" ht="10.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" s="11" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="19">
         <v>18</v>
       </c>
@@ -1663,7 +1663,7 @@
       <c r="S20" s="32"/>
       <c r="T20" s="20"/>
     </row>
-    <row r="21" spans="1:20" s="11" customFormat="1" ht="10.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" s="11" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="24">
         <v>19</v>
       </c>
@@ -1695,7 +1695,7 @@
       <c r="S21" s="32"/>
       <c r="T21" s="20"/>
     </row>
-    <row r="22" spans="1:20" s="11" customFormat="1" ht="10.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" s="11" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="19">
         <v>20</v>
       </c>
@@ -1727,7 +1727,7 @@
       <c r="S22" s="32"/>
       <c r="T22" s="20"/>
     </row>
-    <row r="23" spans="1:20" s="11" customFormat="1" ht="10.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" s="11" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="19">
         <v>21</v>
       </c>
@@ -1759,7 +1759,7 @@
       <c r="S23" s="32"/>
       <c r="T23" s="20"/>
     </row>
-    <row r="24" spans="1:20" s="11" customFormat="1" ht="10.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" s="11" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="24">
         <v>22</v>
       </c>
@@ -1791,7 +1791,7 @@
       <c r="S24" s="32"/>
       <c r="T24" s="20"/>
     </row>
-    <row r="25" spans="1:20" s="11" customFormat="1" ht="10.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" s="11" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="19">
         <v>23</v>
       </c>
@@ -1823,7 +1823,7 @@
       <c r="S25" s="32"/>
       <c r="T25" s="20"/>
     </row>
-    <row r="26" spans="1:20" s="11" customFormat="1" ht="10.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" s="11" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="19">
         <v>24</v>
       </c>
@@ -1855,7 +1855,7 @@
       <c r="S26" s="32"/>
       <c r="T26" s="20"/>
     </row>
-    <row r="27" spans="1:20" s="11" customFormat="1" ht="10.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" s="11" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="24">
         <v>25</v>
       </c>
@@ -1887,7 +1887,7 @@
       <c r="S27" s="32"/>
       <c r="T27" s="20"/>
     </row>
-    <row r="28" spans="1:20" s="11" customFormat="1" ht="10.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" s="11" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="19">
         <v>26</v>
       </c>
@@ -1919,7 +1919,7 @@
       <c r="S28" s="32"/>
       <c r="T28" s="20"/>
     </row>
-    <row r="29" spans="1:20" s="11" customFormat="1" ht="10.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" s="11" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="19">
         <v>27</v>
       </c>
@@ -1951,7 +1951,7 @@
       <c r="S29" s="32"/>
       <c r="T29" s="20"/>
     </row>
-    <row r="30" spans="1:20" s="11" customFormat="1" ht="10.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" s="11" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="24">
         <v>28</v>
       </c>
@@ -1983,7 +1983,7 @@
       <c r="S30" s="32"/>
       <c r="T30" s="20"/>
     </row>
-    <row r="31" spans="1:20" s="11" customFormat="1" ht="10.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" s="11" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="19">
         <v>29</v>
       </c>
@@ -2015,7 +2015,7 @@
       <c r="S31" s="32"/>
       <c r="T31" s="20"/>
     </row>
-    <row r="32" spans="1:20" s="11" customFormat="1" ht="10.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" s="11" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="19">
         <v>30</v>
       </c>
@@ -2047,7 +2047,7 @@
       <c r="S32" s="32"/>
       <c r="T32" s="20"/>
     </row>
-    <row r="33" spans="1:20" s="11" customFormat="1" ht="10.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" s="11" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="38">
         <v>31</v>
       </c>
@@ -2079,7 +2079,7 @@
       <c r="S33" s="32"/>
       <c r="T33" s="20"/>
     </row>
-    <row r="34" spans="1:20" s="11" customFormat="1" ht="10.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" s="11" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="19">
         <v>32</v>
       </c>
@@ -2111,7 +2111,7 @@
       <c r="S34" s="32"/>
       <c r="T34" s="20"/>
     </row>
-    <row r="35" spans="1:20" s="11" customFormat="1" ht="10.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" s="11" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="19">
         <v>33</v>
       </c>
@@ -2143,7 +2143,7 @@
       <c r="S35" s="32"/>
       <c r="T35" s="20"/>
     </row>
-    <row r="36" spans="1:20" s="11" customFormat="1" ht="10.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" s="11" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="24">
         <v>34</v>
       </c>
@@ -2175,7 +2175,7 @@
       <c r="S36" s="32"/>
       <c r="T36" s="20"/>
     </row>
-    <row r="37" spans="1:20" s="11" customFormat="1" ht="10.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" s="11" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="19">
         <v>35</v>
       </c>
@@ -2207,7 +2207,7 @@
       <c r="S37" s="32"/>
       <c r="T37" s="20"/>
     </row>
-    <row r="38" spans="1:20" s="11" customFormat="1" ht="10.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" s="11" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="19">
         <v>36</v>
       </c>
@@ -2239,7 +2239,7 @@
       <c r="S38" s="32"/>
       <c r="T38" s="20"/>
     </row>
-    <row r="39" spans="1:20" s="11" customFormat="1" ht="10.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" s="11" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="24">
         <v>37</v>
       </c>
@@ -2271,7 +2271,7 @@
       <c r="S39" s="32"/>
       <c r="T39" s="20"/>
     </row>
-    <row r="40" spans="1:20" s="11" customFormat="1" ht="10.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" s="11" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="19">
         <v>38</v>
       </c>
@@ -2303,7 +2303,7 @@
       <c r="S40" s="42"/>
       <c r="T40" s="20"/>
     </row>
-    <row r="41" spans="1:20" s="11" customFormat="1" ht="10.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" s="11" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="19">
         <v>39</v>
       </c>
@@ -2335,7 +2335,7 @@
       <c r="S41" s="32"/>
       <c r="T41" s="20"/>
     </row>
-    <row r="42" spans="1:20" s="11" customFormat="1" ht="10.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" s="11" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="24">
         <v>40</v>
       </c>
@@ -2367,7 +2367,7 @@
       <c r="S42" s="32"/>
       <c r="T42" s="20"/>
     </row>
-    <row r="43" spans="1:20" s="11" customFormat="1" ht="10.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" s="11" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="19">
         <v>41</v>
       </c>
@@ -2399,7 +2399,7 @@
       <c r="S43" s="32"/>
       <c r="T43" s="20"/>
     </row>
-    <row r="44" spans="1:20" s="11" customFormat="1" ht="10.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" s="11" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="19">
         <v>42</v>
       </c>
@@ -2431,7 +2431,7 @@
       <c r="S44" s="32"/>
       <c r="T44" s="20"/>
     </row>
-    <row r="45" spans="1:20" s="11" customFormat="1" ht="10.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" s="11" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="24">
         <v>43</v>
       </c>
@@ -2463,7 +2463,7 @@
       <c r="S45" s="32"/>
       <c r="T45" s="20"/>
     </row>
-    <row r="46" spans="1:20" s="11" customFormat="1" ht="10.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" s="11" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="19">
         <v>44</v>
       </c>
@@ -2495,7 +2495,7 @@
       <c r="S46" s="32"/>
       <c r="T46" s="20"/>
     </row>
-    <row r="47" spans="1:20" s="11" customFormat="1" ht="10.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" s="11" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="19">
         <v>45</v>
       </c>
@@ -2527,7 +2527,7 @@
       <c r="S47" s="42"/>
       <c r="T47" s="20"/>
     </row>
-    <row r="48" spans="1:20" s="11" customFormat="1" ht="10.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" s="11" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="24">
         <v>46</v>
       </c>
@@ -2559,7 +2559,7 @@
       <c r="S48" s="32"/>
       <c r="T48" s="20"/>
     </row>
-    <row r="49" spans="1:20" s="11" customFormat="1" ht="10.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" s="11" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="19">
         <v>47</v>
       </c>
@@ -2591,7 +2591,7 @@
       <c r="S49" s="32"/>
       <c r="T49" s="20"/>
     </row>
-    <row r="50" spans="1:20" s="11" customFormat="1" ht="10.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" s="11" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="43">
         <v>48</v>
       </c>
@@ -2623,7 +2623,7 @@
       <c r="S50" s="50"/>
       <c r="T50" s="44"/>
     </row>
-    <row r="51" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="52" t="s">
         <v>4</v>
       </c>
@@ -2647,7 +2647,7 @@
       <c r="S51" s="52"/>
       <c r="T51" s="52"/>
     </row>
-    <row r="52" spans="1:20" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:20" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="53" t="s">
         <v>5</v>
       </c>
@@ -2678,6 +2678,6 @@
     <mergeCell ref="A52:T52"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="landscape" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="86" orientation="landscape" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
--- a/static/agree.xlsx
+++ b/static/agree.xlsx
@@ -1,29 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E6C268A-0F9D-4E60-B615-A40E0CACCE09}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC4AD3A4-4D56-4B34-AD05-906BDFDC78E1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="8">
   <si>
     <t>№п.п.</t>
   </si>
@@ -43,14 +35,17 @@
     <t>Председатель профсоюзного комитета «Филиала Юго-Западный»:  _______________  /________________/</t>
   </si>
   <si>
-    <t>Администрация Филиала "Юго-Западный", в лице директора  Р.А. Езохова, предлагает нижеперечисленным водителям 13-ой автоколонны выполнять сверхурочную работу за пределами установленной продолжительности рабочего времени (баланса), а так же работу в выходные, праздничные дни в октябре 2020 года.</t>
+    <t>Согласие</t>
+  </si>
+  <si>
+    <t>Мы, нижеподписавшиеся водители автобуса регулярных городских пассажирских маршрутов 9-ой колонны филиала Юго-западный ГУП "Мосгортранс", в соответствии со ст.ст. 113, 99 ТК РФ выражаем свое согласие на привлечение к работе в выходные и праздничные дни, на привлечение к выполнению сверхурочной работы за пределами установленной продолжительности рабочего времени (баланса), а также на разделение рабочего дня (смены) на части в марте 2022 года. С правом отказаться от работы в выходные и праздничные дни, а также отказаться от сверхурочной работы ознакомлены.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,6 +171,15 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -517,7 +521,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -653,6 +657,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -971,10 +978,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T52"/>
+  <dimension ref="A1:T53"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1001,247 +1008,239 @@
     <col min="20" max="20" width="7.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="4" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
-    </row>
-    <row r="2" spans="1:20" s="5" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+    </row>
+    <row r="2" spans="1:20" s="4" customFormat="1" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+    </row>
+    <row r="3" spans="1:20" s="5" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="N3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="Q3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="R3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="S3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="T3" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="11" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="12">
+    <row r="4" spans="1:20" s="11" customFormat="1" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
         <v>1</v>
-      </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="12">
-        <v>49</v>
-      </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="12">
-        <v>97</v>
-      </c>
-      <c r="J3" s="13"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="12">
-        <v>145</v>
-      </c>
-      <c r="N3" s="13"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="16">
-        <v>193</v>
-      </c>
-      <c r="R3" s="17"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="15"/>
-    </row>
-    <row r="4" spans="1:20" s="11" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="19">
-        <v>2</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="14"/>
-      <c r="D4" s="20"/>
+      <c r="D4" s="15"/>
       <c r="E4" s="12">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="14"/>
-      <c r="H4" s="20"/>
+      <c r="H4" s="15"/>
       <c r="I4" s="12">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J4" s="13"/>
       <c r="K4" s="14"/>
-      <c r="L4" s="20"/>
+      <c r="L4" s="15"/>
       <c r="M4" s="12">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N4" s="13"/>
       <c r="O4" s="14"/>
-      <c r="P4" s="20"/>
+      <c r="P4" s="15"/>
       <c r="Q4" s="16">
-        <v>194</v>
-      </c>
-      <c r="R4" s="21"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="20"/>
+        <v>193</v>
+      </c>
+      <c r="R4" s="17"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="15"/>
     </row>
     <row r="5" spans="1:20" s="11" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="14"/>
       <c r="D5" s="20"/>
       <c r="E5" s="12">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F5" s="13"/>
       <c r="G5" s="14"/>
-      <c r="H5" s="23"/>
+      <c r="H5" s="20"/>
       <c r="I5" s="12">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J5" s="13"/>
       <c r="K5" s="14"/>
       <c r="L5" s="20"/>
       <c r="M5" s="12">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N5" s="13"/>
       <c r="O5" s="14"/>
       <c r="P5" s="20"/>
       <c r="Q5" s="16">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R5" s="21"/>
       <c r="S5" s="22"/>
       <c r="T5" s="20"/>
     </row>
     <row r="6" spans="1:20" s="11" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="24">
-        <v>4</v>
+      <c r="A6" s="19">
+        <v>3</v>
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="14"/>
       <c r="D6" s="20"/>
       <c r="E6" s="12">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="14"/>
       <c r="H6" s="23"/>
       <c r="I6" s="12">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J6" s="13"/>
       <c r="K6" s="14"/>
       <c r="L6" s="20"/>
       <c r="M6" s="12">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N6" s="13"/>
       <c r="O6" s="14"/>
       <c r="P6" s="20"/>
       <c r="Q6" s="16">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="R6" s="21"/>
       <c r="S6" s="22"/>
       <c r="T6" s="20"/>
     </row>
     <row r="7" spans="1:20" s="11" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="19">
-        <v>5</v>
+      <c r="A7" s="24">
+        <v>4</v>
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="14"/>
       <c r="D7" s="20"/>
       <c r="E7" s="12">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F7" s="13"/>
       <c r="G7" s="14"/>
       <c r="H7" s="23"/>
       <c r="I7" s="12">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J7" s="13"/>
       <c r="K7" s="14"/>
       <c r="L7" s="20"/>
       <c r="M7" s="12">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N7" s="13"/>
       <c r="O7" s="14"/>
       <c r="P7" s="20"/>
       <c r="Q7" s="16">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="R7" s="21"/>
       <c r="S7" s="22"/>
@@ -1249,287 +1248,287 @@
     </row>
     <row r="8" spans="1:20" s="11" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
       <c r="D8" s="20"/>
       <c r="E8" s="12">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="14"/>
       <c r="H8" s="23"/>
       <c r="I8" s="12">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J8" s="13"/>
       <c r="K8" s="14"/>
       <c r="L8" s="20"/>
       <c r="M8" s="12">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N8" s="13"/>
       <c r="O8" s="14"/>
       <c r="P8" s="20"/>
       <c r="Q8" s="16">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="R8" s="21"/>
       <c r="S8" s="22"/>
       <c r="T8" s="20"/>
     </row>
     <row r="9" spans="1:20" s="11" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="24">
-        <v>7</v>
+      <c r="A9" s="19">
+        <v>6</v>
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="14"/>
       <c r="D9" s="20"/>
       <c r="E9" s="12">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F9" s="13"/>
       <c r="G9" s="14"/>
       <c r="H9" s="23"/>
       <c r="I9" s="12">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J9" s="13"/>
       <c r="K9" s="14"/>
       <c r="L9" s="20"/>
       <c r="M9" s="12">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N9" s="13"/>
       <c r="O9" s="14"/>
       <c r="P9" s="20"/>
       <c r="Q9" s="16">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="R9" s="21"/>
       <c r="S9" s="22"/>
       <c r="T9" s="20"/>
     </row>
     <row r="10" spans="1:20" s="11" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="19">
-        <v>8</v>
+      <c r="A10" s="24">
+        <v>7</v>
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="20"/>
       <c r="E10" s="12">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F10" s="13"/>
       <c r="G10" s="14"/>
       <c r="H10" s="23"/>
       <c r="I10" s="12">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J10" s="13"/>
       <c r="K10" s="14"/>
       <c r="L10" s="20"/>
       <c r="M10" s="12">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N10" s="13"/>
       <c r="O10" s="14"/>
       <c r="P10" s="20"/>
       <c r="Q10" s="16">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="R10" s="21"/>
-      <c r="S10" s="25"/>
+      <c r="S10" s="22"/>
       <c r="T10" s="20"/>
     </row>
     <row r="11" spans="1:20" s="11" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="19">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="14"/>
       <c r="D11" s="20"/>
       <c r="E11" s="12">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F11" s="13"/>
       <c r="G11" s="14"/>
       <c r="H11" s="23"/>
       <c r="I11" s="12">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J11" s="13"/>
       <c r="K11" s="14"/>
       <c r="L11" s="20"/>
       <c r="M11" s="12">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N11" s="13"/>
       <c r="O11" s="14"/>
       <c r="P11" s="20"/>
       <c r="Q11" s="16">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="R11" s="21"/>
-      <c r="S11" s="22"/>
+      <c r="S11" s="25"/>
       <c r="T11" s="20"/>
     </row>
     <row r="12" spans="1:20" s="11" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="24">
-        <v>10</v>
+      <c r="A12" s="19">
+        <v>9</v>
       </c>
       <c r="B12" s="13"/>
       <c r="C12" s="14"/>
       <c r="D12" s="20"/>
       <c r="E12" s="12">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F12" s="13"/>
       <c r="G12" s="14"/>
       <c r="H12" s="23"/>
       <c r="I12" s="12">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J12" s="13"/>
       <c r="K12" s="14"/>
       <c r="L12" s="20"/>
       <c r="M12" s="12">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N12" s="13"/>
       <c r="O12" s="14"/>
       <c r="P12" s="20"/>
       <c r="Q12" s="16">
-        <v>202</v>
-      </c>
-      <c r="R12" s="26"/>
-      <c r="S12" s="27"/>
+        <v>201</v>
+      </c>
+      <c r="R12" s="21"/>
+      <c r="S12" s="22"/>
       <c r="T12" s="20"/>
     </row>
     <row r="13" spans="1:20" s="11" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="19">
-        <v>11</v>
+      <c r="A13" s="24">
+        <v>10</v>
       </c>
       <c r="B13" s="13"/>
       <c r="C13" s="14"/>
       <c r="D13" s="20"/>
       <c r="E13" s="12">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F13" s="13"/>
       <c r="G13" s="14"/>
       <c r="H13" s="23"/>
       <c r="I13" s="12">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J13" s="13"/>
       <c r="K13" s="14"/>
       <c r="L13" s="20"/>
       <c r="M13" s="12">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N13" s="13"/>
       <c r="O13" s="14"/>
       <c r="P13" s="20"/>
       <c r="Q13" s="16">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="R13" s="26"/>
-      <c r="S13" s="28"/>
+      <c r="S13" s="27"/>
       <c r="T13" s="20"/>
     </row>
     <row r="14" spans="1:20" s="11" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="19">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="14"/>
       <c r="D14" s="20"/>
       <c r="E14" s="12">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F14" s="13"/>
       <c r="G14" s="14"/>
       <c r="H14" s="23"/>
       <c r="I14" s="12">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J14" s="13"/>
       <c r="K14" s="14"/>
       <c r="L14" s="20"/>
       <c r="M14" s="12">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="N14" s="13"/>
       <c r="O14" s="14"/>
       <c r="P14" s="20"/>
       <c r="Q14" s="16">
-        <v>204</v>
-      </c>
-      <c r="R14" s="29"/>
-      <c r="S14" s="30"/>
+        <v>203</v>
+      </c>
+      <c r="R14" s="26"/>
+      <c r="S14" s="28"/>
       <c r="T14" s="20"/>
     </row>
     <row r="15" spans="1:20" s="11" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="24">
-        <v>13</v>
+      <c r="A15" s="19">
+        <v>12</v>
       </c>
       <c r="B15" s="13"/>
       <c r="C15" s="14"/>
       <c r="D15" s="20"/>
       <c r="E15" s="12">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F15" s="13"/>
       <c r="G15" s="14"/>
       <c r="H15" s="23"/>
       <c r="I15" s="12">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J15" s="13"/>
       <c r="K15" s="14"/>
       <c r="L15" s="20"/>
       <c r="M15" s="12">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N15" s="13"/>
       <c r="O15" s="14"/>
       <c r="P15" s="20"/>
       <c r="Q15" s="16">
-        <v>205</v>
-      </c>
-      <c r="R15" s="31"/>
-      <c r="S15" s="32"/>
+        <v>204</v>
+      </c>
+      <c r="R15" s="29"/>
+      <c r="S15" s="30"/>
       <c r="T15" s="20"/>
     </row>
     <row r="16" spans="1:20" s="11" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="19">
-        <v>14</v>
+      <c r="A16" s="24">
+        <v>13</v>
       </c>
       <c r="B16" s="13"/>
       <c r="C16" s="14"/>
       <c r="D16" s="20"/>
       <c r="E16" s="12">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F16" s="13"/>
       <c r="G16" s="14"/>
       <c r="H16" s="23"/>
       <c r="I16" s="12">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J16" s="13"/>
       <c r="K16" s="14"/>
       <c r="L16" s="20"/>
       <c r="M16" s="12">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N16" s="13"/>
       <c r="O16" s="14"/>
       <c r="P16" s="20"/>
       <c r="Q16" s="16">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="R16" s="31"/>
       <c r="S16" s="32"/>
@@ -1537,95 +1536,95 @@
     </row>
     <row r="17" spans="1:20" s="11" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="19">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="13"/>
       <c r="C17" s="14"/>
       <c r="D17" s="20"/>
       <c r="E17" s="12">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F17" s="13"/>
       <c r="G17" s="14"/>
       <c r="H17" s="23"/>
       <c r="I17" s="12">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J17" s="13"/>
       <c r="K17" s="14"/>
       <c r="L17" s="20"/>
       <c r="M17" s="12">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N17" s="13"/>
       <c r="O17" s="14"/>
       <c r="P17" s="20"/>
       <c r="Q17" s="16">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="R17" s="31"/>
       <c r="S17" s="32"/>
       <c r="T17" s="20"/>
     </row>
     <row r="18" spans="1:20" s="11" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="24">
-        <v>16</v>
+      <c r="A18" s="19">
+        <v>15</v>
       </c>
       <c r="B18" s="13"/>
       <c r="C18" s="14"/>
       <c r="D18" s="20"/>
       <c r="E18" s="12">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F18" s="13"/>
       <c r="G18" s="14"/>
       <c r="H18" s="23"/>
       <c r="I18" s="12">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J18" s="13"/>
       <c r="K18" s="14"/>
       <c r="L18" s="20"/>
       <c r="M18" s="12">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N18" s="13"/>
       <c r="O18" s="14"/>
       <c r="P18" s="20"/>
       <c r="Q18" s="16">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="R18" s="31"/>
       <c r="S18" s="32"/>
       <c r="T18" s="20"/>
     </row>
     <row r="19" spans="1:20" s="11" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="19">
-        <v>17</v>
+      <c r="A19" s="24">
+        <v>16</v>
       </c>
       <c r="B19" s="13"/>
       <c r="C19" s="14"/>
       <c r="D19" s="20"/>
       <c r="E19" s="12">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F19" s="13"/>
       <c r="G19" s="14"/>
       <c r="H19" s="23"/>
       <c r="I19" s="12">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J19" s="13"/>
       <c r="K19" s="14"/>
       <c r="L19" s="20"/>
       <c r="M19" s="12">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N19" s="13"/>
       <c r="O19" s="14"/>
       <c r="P19" s="20"/>
       <c r="Q19" s="16">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="R19" s="31"/>
       <c r="S19" s="32"/>
@@ -1633,95 +1632,95 @@
     </row>
     <row r="20" spans="1:20" s="11" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="13"/>
       <c r="C20" s="14"/>
       <c r="D20" s="20"/>
       <c r="E20" s="12">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F20" s="13"/>
       <c r="G20" s="14"/>
       <c r="H20" s="23"/>
       <c r="I20" s="12">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J20" s="13"/>
       <c r="K20" s="14"/>
       <c r="L20" s="20"/>
       <c r="M20" s="12">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N20" s="13"/>
       <c r="O20" s="14"/>
       <c r="P20" s="20"/>
       <c r="Q20" s="16">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="R20" s="31"/>
       <c r="S20" s="32"/>
       <c r="T20" s="20"/>
     </row>
     <row r="21" spans="1:20" s="11" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="24">
-        <v>19</v>
+      <c r="A21" s="19">
+        <v>18</v>
       </c>
       <c r="B21" s="13"/>
       <c r="C21" s="14"/>
       <c r="D21" s="20"/>
       <c r="E21" s="12">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F21" s="13"/>
       <c r="G21" s="14"/>
       <c r="H21" s="23"/>
       <c r="I21" s="12">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J21" s="13"/>
       <c r="K21" s="14"/>
       <c r="L21" s="20"/>
       <c r="M21" s="12">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N21" s="13"/>
       <c r="O21" s="14"/>
       <c r="P21" s="20"/>
       <c r="Q21" s="16">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="R21" s="31"/>
       <c r="S21" s="32"/>
       <c r="T21" s="20"/>
     </row>
     <row r="22" spans="1:20" s="11" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="19">
-        <v>20</v>
+      <c r="A22" s="24">
+        <v>19</v>
       </c>
       <c r="B22" s="13"/>
       <c r="C22" s="14"/>
       <c r="D22" s="20"/>
       <c r="E22" s="12">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F22" s="13"/>
       <c r="G22" s="14"/>
       <c r="H22" s="23"/>
       <c r="I22" s="12">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J22" s="13"/>
       <c r="K22" s="14"/>
       <c r="L22" s="20"/>
       <c r="M22" s="12">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N22" s="13"/>
       <c r="O22" s="14"/>
       <c r="P22" s="20"/>
       <c r="Q22" s="16">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="R22" s="31"/>
       <c r="S22" s="32"/>
@@ -1729,95 +1728,95 @@
     </row>
     <row r="23" spans="1:20" s="11" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="19">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="13"/>
       <c r="C23" s="14"/>
       <c r="D23" s="20"/>
       <c r="E23" s="12">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F23" s="13"/>
       <c r="G23" s="14"/>
       <c r="H23" s="23"/>
       <c r="I23" s="12">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J23" s="13"/>
       <c r="K23" s="14"/>
       <c r="L23" s="20"/>
       <c r="M23" s="12">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N23" s="13"/>
       <c r="O23" s="14"/>
       <c r="P23" s="20"/>
       <c r="Q23" s="16">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="R23" s="31"/>
       <c r="S23" s="32"/>
       <c r="T23" s="20"/>
     </row>
     <row r="24" spans="1:20" s="11" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="24">
-        <v>22</v>
+      <c r="A24" s="19">
+        <v>21</v>
       </c>
       <c r="B24" s="13"/>
       <c r="C24" s="14"/>
       <c r="D24" s="20"/>
       <c r="E24" s="12">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F24" s="13"/>
       <c r="G24" s="14"/>
       <c r="H24" s="23"/>
       <c r="I24" s="12">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J24" s="13"/>
       <c r="K24" s="14"/>
       <c r="L24" s="20"/>
       <c r="M24" s="12">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N24" s="13"/>
       <c r="O24" s="14"/>
       <c r="P24" s="20"/>
       <c r="Q24" s="16">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="R24" s="31"/>
       <c r="S24" s="32"/>
       <c r="T24" s="20"/>
     </row>
     <row r="25" spans="1:20" s="11" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="19">
-        <v>23</v>
+      <c r="A25" s="24">
+        <v>22</v>
       </c>
       <c r="B25" s="13"/>
       <c r="C25" s="14"/>
       <c r="D25" s="20"/>
       <c r="E25" s="12">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F25" s="13"/>
       <c r="G25" s="14"/>
       <c r="H25" s="23"/>
       <c r="I25" s="12">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J25" s="13"/>
       <c r="K25" s="14"/>
       <c r="L25" s="20"/>
       <c r="M25" s="12">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N25" s="13"/>
       <c r="O25" s="14"/>
       <c r="P25" s="20"/>
       <c r="Q25" s="16">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="R25" s="31"/>
       <c r="S25" s="32"/>
@@ -1825,95 +1824,95 @@
     </row>
     <row r="26" spans="1:20" s="11" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="19">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" s="13"/>
       <c r="C26" s="14"/>
       <c r="D26" s="20"/>
       <c r="E26" s="12">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F26" s="13"/>
       <c r="G26" s="14"/>
       <c r="H26" s="23"/>
       <c r="I26" s="12">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J26" s="13"/>
       <c r="K26" s="14"/>
       <c r="L26" s="20"/>
       <c r="M26" s="12">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N26" s="13"/>
       <c r="O26" s="14"/>
       <c r="P26" s="20"/>
       <c r="Q26" s="16">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="R26" s="31"/>
       <c r="S26" s="32"/>
       <c r="T26" s="20"/>
     </row>
     <row r="27" spans="1:20" s="11" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="24">
-        <v>25</v>
+      <c r="A27" s="19">
+        <v>24</v>
       </c>
       <c r="B27" s="13"/>
       <c r="C27" s="14"/>
       <c r="D27" s="20"/>
       <c r="E27" s="12">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F27" s="13"/>
       <c r="G27" s="14"/>
       <c r="H27" s="23"/>
       <c r="I27" s="12">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J27" s="13"/>
       <c r="K27" s="14"/>
       <c r="L27" s="20"/>
       <c r="M27" s="12">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N27" s="13"/>
       <c r="O27" s="14"/>
       <c r="P27" s="20"/>
       <c r="Q27" s="16">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="R27" s="31"/>
       <c r="S27" s="32"/>
       <c r="T27" s="20"/>
     </row>
     <row r="28" spans="1:20" s="11" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="19">
-        <v>26</v>
+      <c r="A28" s="24">
+        <v>25</v>
       </c>
       <c r="B28" s="13"/>
       <c r="C28" s="14"/>
       <c r="D28" s="20"/>
       <c r="E28" s="12">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F28" s="13"/>
       <c r="G28" s="14"/>
       <c r="H28" s="23"/>
       <c r="I28" s="12">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J28" s="13"/>
       <c r="K28" s="14"/>
       <c r="L28" s="20"/>
       <c r="M28" s="12">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N28" s="13"/>
       <c r="O28" s="14"/>
       <c r="P28" s="20"/>
       <c r="Q28" s="16">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="R28" s="31"/>
       <c r="S28" s="32"/>
@@ -1921,95 +1920,95 @@
     </row>
     <row r="29" spans="1:20" s="11" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="19">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" s="13"/>
       <c r="C29" s="14"/>
       <c r="D29" s="20"/>
       <c r="E29" s="12">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F29" s="13"/>
       <c r="G29" s="14"/>
       <c r="H29" s="23"/>
       <c r="I29" s="12">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J29" s="13"/>
       <c r="K29" s="14"/>
       <c r="L29" s="20"/>
-      <c r="M29" s="33">
-        <v>171</v>
-      </c>
-      <c r="N29" s="34"/>
-      <c r="O29" s="35"/>
+      <c r="M29" s="12">
+        <v>170</v>
+      </c>
+      <c r="N29" s="13"/>
+      <c r="O29" s="14"/>
       <c r="P29" s="20"/>
       <c r="Q29" s="16">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="R29" s="31"/>
       <c r="S29" s="32"/>
       <c r="T29" s="20"/>
     </row>
     <row r="30" spans="1:20" s="11" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="24">
-        <v>28</v>
+      <c r="A30" s="19">
+        <v>27</v>
       </c>
       <c r="B30" s="13"/>
       <c r="C30" s="14"/>
       <c r="D30" s="20"/>
       <c r="E30" s="12">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F30" s="13"/>
       <c r="G30" s="14"/>
       <c r="H30" s="23"/>
       <c r="I30" s="12">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J30" s="13"/>
       <c r="K30" s="14"/>
       <c r="L30" s="20"/>
-      <c r="M30" s="12">
-        <v>172</v>
-      </c>
-      <c r="N30" s="36"/>
+      <c r="M30" s="33">
+        <v>171</v>
+      </c>
+      <c r="N30" s="34"/>
       <c r="O30" s="35"/>
       <c r="P30" s="20"/>
       <c r="Q30" s="16">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="R30" s="31"/>
       <c r="S30" s="32"/>
       <c r="T30" s="20"/>
     </row>
     <row r="31" spans="1:20" s="11" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="19">
-        <v>29</v>
+      <c r="A31" s="24">
+        <v>28</v>
       </c>
       <c r="B31" s="13"/>
       <c r="C31" s="14"/>
       <c r="D31" s="20"/>
       <c r="E31" s="12">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F31" s="13"/>
       <c r="G31" s="14"/>
       <c r="H31" s="23"/>
       <c r="I31" s="12">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J31" s="13"/>
       <c r="K31" s="14"/>
       <c r="L31" s="20"/>
       <c r="M31" s="12">
-        <v>173</v>
-      </c>
-      <c r="N31" s="37"/>
-      <c r="O31" s="28"/>
+        <v>172</v>
+      </c>
+      <c r="N31" s="36"/>
+      <c r="O31" s="35"/>
       <c r="P31" s="20"/>
       <c r="Q31" s="16">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="R31" s="31"/>
       <c r="S31" s="32"/>
@@ -2017,95 +2016,95 @@
     </row>
     <row r="32" spans="1:20" s="11" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="19">
-        <v>30</v>
-      </c>
-      <c r="B32" s="35"/>
-      <c r="C32" s="39"/>
+        <v>29</v>
+      </c>
+      <c r="B32" s="13"/>
+      <c r="C32" s="14"/>
       <c r="D32" s="20"/>
       <c r="E32" s="12">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F32" s="13"/>
       <c r="G32" s="14"/>
       <c r="H32" s="23"/>
       <c r="I32" s="12">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J32" s="13"/>
       <c r="K32" s="14"/>
       <c r="L32" s="20"/>
       <c r="M32" s="12">
-        <v>174</v>
-      </c>
-      <c r="N32" s="36"/>
+        <v>173</v>
+      </c>
+      <c r="N32" s="37"/>
       <c r="O32" s="28"/>
       <c r="P32" s="20"/>
       <c r="Q32" s="16">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="R32" s="31"/>
       <c r="S32" s="32"/>
       <c r="T32" s="20"/>
     </row>
     <row r="33" spans="1:20" s="11" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="38">
-        <v>31</v>
-      </c>
-      <c r="B33" s="13"/>
-      <c r="C33" s="14"/>
+      <c r="A33" s="19">
+        <v>30</v>
+      </c>
+      <c r="B33" s="35"/>
+      <c r="C33" s="39"/>
       <c r="D33" s="20"/>
       <c r="E33" s="12">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F33" s="13"/>
       <c r="G33" s="14"/>
       <c r="H33" s="23"/>
       <c r="I33" s="12">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J33" s="13"/>
       <c r="K33" s="14"/>
       <c r="L33" s="20"/>
       <c r="M33" s="12">
-        <v>175</v>
-      </c>
-      <c r="N33" s="37"/>
+        <v>174</v>
+      </c>
+      <c r="N33" s="36"/>
       <c r="O33" s="28"/>
       <c r="P33" s="20"/>
       <c r="Q33" s="16">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R33" s="31"/>
       <c r="S33" s="32"/>
       <c r="T33" s="20"/>
     </row>
     <row r="34" spans="1:20" s="11" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="19">
-        <v>32</v>
+      <c r="A34" s="38">
+        <v>31</v>
       </c>
       <c r="B34" s="13"/>
       <c r="C34" s="14"/>
       <c r="D34" s="20"/>
       <c r="E34" s="12">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F34" s="13"/>
       <c r="G34" s="14"/>
       <c r="H34" s="23"/>
       <c r="I34" s="12">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J34" s="13"/>
       <c r="K34" s="14"/>
       <c r="L34" s="20"/>
       <c r="M34" s="12">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N34" s="37"/>
       <c r="O34" s="28"/>
       <c r="P34" s="20"/>
       <c r="Q34" s="16">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="R34" s="31"/>
       <c r="S34" s="32"/>
@@ -2113,95 +2112,95 @@
     </row>
     <row r="35" spans="1:20" s="11" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="19">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B35" s="13"/>
       <c r="C35" s="14"/>
       <c r="D35" s="20"/>
       <c r="E35" s="12">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F35" s="13"/>
       <c r="G35" s="14"/>
       <c r="H35" s="23"/>
       <c r="I35" s="12">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J35" s="13"/>
       <c r="K35" s="14"/>
       <c r="L35" s="20"/>
-      <c r="M35" s="33">
-        <v>177</v>
+      <c r="M35" s="12">
+        <v>176</v>
       </c>
       <c r="N35" s="37"/>
       <c r="O35" s="28"/>
       <c r="P35" s="20"/>
       <c r="Q35" s="16">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="R35" s="31"/>
       <c r="S35" s="32"/>
       <c r="T35" s="20"/>
     </row>
     <row r="36" spans="1:20" s="11" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="24">
-        <v>34</v>
+      <c r="A36" s="19">
+        <v>33</v>
       </c>
       <c r="B36" s="13"/>
       <c r="C36" s="14"/>
       <c r="D36" s="20"/>
       <c r="E36" s="12">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F36" s="13"/>
       <c r="G36" s="14"/>
       <c r="H36" s="23"/>
       <c r="I36" s="12">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J36" s="13"/>
       <c r="K36" s="14"/>
       <c r="L36" s="20"/>
-      <c r="M36" s="12">
-        <v>178</v>
-      </c>
-      <c r="N36" s="40"/>
-      <c r="O36" s="27"/>
+      <c r="M36" s="33">
+        <v>177</v>
+      </c>
+      <c r="N36" s="37"/>
+      <c r="O36" s="28"/>
       <c r="P36" s="20"/>
       <c r="Q36" s="16">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="R36" s="31"/>
       <c r="S36" s="32"/>
       <c r="T36" s="20"/>
     </row>
     <row r="37" spans="1:20" s="11" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="19">
-        <v>35</v>
+      <c r="A37" s="24">
+        <v>34</v>
       </c>
       <c r="B37" s="13"/>
       <c r="C37" s="14"/>
       <c r="D37" s="20"/>
       <c r="E37" s="12">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F37" s="13"/>
       <c r="G37" s="14"/>
       <c r="H37" s="23"/>
       <c r="I37" s="12">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J37" s="13"/>
       <c r="K37" s="14"/>
       <c r="L37" s="20"/>
       <c r="M37" s="12">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N37" s="40"/>
       <c r="O37" s="27"/>
       <c r="P37" s="20"/>
       <c r="Q37" s="16">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="R37" s="31"/>
       <c r="S37" s="32"/>
@@ -2209,191 +2208,191 @@
     </row>
     <row r="38" spans="1:20" s="11" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="19">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B38" s="13"/>
       <c r="C38" s="14"/>
       <c r="D38" s="20"/>
       <c r="E38" s="12">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F38" s="13"/>
       <c r="G38" s="14"/>
       <c r="H38" s="23"/>
       <c r="I38" s="12">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J38" s="13"/>
       <c r="K38" s="14"/>
       <c r="L38" s="20"/>
       <c r="M38" s="12">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N38" s="40"/>
       <c r="O38" s="27"/>
       <c r="P38" s="20"/>
       <c r="Q38" s="16">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="R38" s="31"/>
       <c r="S38" s="32"/>
       <c r="T38" s="20"/>
     </row>
     <row r="39" spans="1:20" s="11" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="24">
-        <v>37</v>
+      <c r="A39" s="19">
+        <v>36</v>
       </c>
       <c r="B39" s="13"/>
       <c r="C39" s="14"/>
       <c r="D39" s="20"/>
       <c r="E39" s="12">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F39" s="13"/>
       <c r="G39" s="14"/>
       <c r="H39" s="23"/>
       <c r="I39" s="12">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J39" s="13"/>
       <c r="K39" s="14"/>
       <c r="L39" s="20"/>
       <c r="M39" s="12">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N39" s="40"/>
       <c r="O39" s="27"/>
       <c r="P39" s="20"/>
       <c r="Q39" s="16">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="R39" s="31"/>
       <c r="S39" s="32"/>
       <c r="T39" s="20"/>
     </row>
     <row r="40" spans="1:20" s="11" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="19">
-        <v>38</v>
+      <c r="A40" s="24">
+        <v>37</v>
       </c>
       <c r="B40" s="13"/>
       <c r="C40" s="14"/>
       <c r="D40" s="20"/>
       <c r="E40" s="12">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F40" s="13"/>
       <c r="G40" s="14"/>
       <c r="H40" s="23"/>
       <c r="I40" s="12">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J40" s="13"/>
       <c r="K40" s="14"/>
       <c r="L40" s="20"/>
       <c r="M40" s="12">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="N40" s="40"/>
       <c r="O40" s="27"/>
       <c r="P40" s="20"/>
       <c r="Q40" s="16">
-        <v>230</v>
-      </c>
-      <c r="R40" s="41"/>
-      <c r="S40" s="42"/>
+        <v>229</v>
+      </c>
+      <c r="R40" s="31"/>
+      <c r="S40" s="32"/>
       <c r="T40" s="20"/>
     </row>
     <row r="41" spans="1:20" s="11" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="19">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B41" s="13"/>
       <c r="C41" s="14"/>
       <c r="D41" s="20"/>
       <c r="E41" s="12">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F41" s="13"/>
       <c r="G41" s="14"/>
       <c r="H41" s="23"/>
       <c r="I41" s="12">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J41" s="13"/>
       <c r="K41" s="14"/>
       <c r="L41" s="20"/>
       <c r="M41" s="12">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N41" s="40"/>
       <c r="O41" s="27"/>
       <c r="P41" s="20"/>
       <c r="Q41" s="16">
-        <v>231</v>
-      </c>
-      <c r="R41" s="31"/>
-      <c r="S41" s="32"/>
+        <v>230</v>
+      </c>
+      <c r="R41" s="41"/>
+      <c r="S41" s="42"/>
       <c r="T41" s="20"/>
     </row>
     <row r="42" spans="1:20" s="11" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="24">
-        <v>40</v>
+      <c r="A42" s="19">
+        <v>39</v>
       </c>
       <c r="B42" s="13"/>
       <c r="C42" s="14"/>
       <c r="D42" s="20"/>
       <c r="E42" s="12">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F42" s="13"/>
       <c r="G42" s="14"/>
       <c r="H42" s="23"/>
       <c r="I42" s="12">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J42" s="13"/>
       <c r="K42" s="14"/>
       <c r="L42" s="20"/>
       <c r="M42" s="12">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N42" s="40"/>
       <c r="O42" s="27"/>
       <c r="P42" s="20"/>
       <c r="Q42" s="16">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="R42" s="31"/>
       <c r="S42" s="32"/>
       <c r="T42" s="20"/>
     </row>
     <row r="43" spans="1:20" s="11" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="19">
-        <v>41</v>
+      <c r="A43" s="24">
+        <v>40</v>
       </c>
       <c r="B43" s="13"/>
       <c r="C43" s="14"/>
       <c r="D43" s="20"/>
       <c r="E43" s="12">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F43" s="13"/>
       <c r="G43" s="14"/>
       <c r="H43" s="23"/>
       <c r="I43" s="12">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J43" s="13"/>
       <c r="K43" s="14"/>
       <c r="L43" s="20"/>
       <c r="M43" s="12">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N43" s="40"/>
       <c r="O43" s="27"/>
       <c r="P43" s="20"/>
       <c r="Q43" s="16">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="R43" s="31"/>
       <c r="S43" s="32"/>
@@ -2401,95 +2400,95 @@
     </row>
     <row r="44" spans="1:20" s="11" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="19">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B44" s="13"/>
       <c r="C44" s="14"/>
       <c r="D44" s="20"/>
       <c r="E44" s="12">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F44" s="13"/>
       <c r="G44" s="14"/>
       <c r="H44" s="23"/>
       <c r="I44" s="12">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J44" s="13"/>
       <c r="K44" s="14"/>
       <c r="L44" s="20"/>
       <c r="M44" s="12">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N44" s="40"/>
       <c r="O44" s="27"/>
       <c r="P44" s="20"/>
       <c r="Q44" s="16">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R44" s="31"/>
       <c r="S44" s="32"/>
       <c r="T44" s="20"/>
     </row>
     <row r="45" spans="1:20" s="11" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="24">
-        <v>43</v>
+      <c r="A45" s="19">
+        <v>42</v>
       </c>
       <c r="B45" s="13"/>
       <c r="C45" s="14"/>
       <c r="D45" s="20"/>
       <c r="E45" s="12">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F45" s="13"/>
       <c r="G45" s="14"/>
       <c r="H45" s="23"/>
       <c r="I45" s="12">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J45" s="13"/>
       <c r="K45" s="14"/>
       <c r="L45" s="20"/>
       <c r="M45" s="12">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N45" s="40"/>
       <c r="O45" s="27"/>
       <c r="P45" s="20"/>
       <c r="Q45" s="16">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="R45" s="31"/>
       <c r="S45" s="32"/>
       <c r="T45" s="20"/>
     </row>
     <row r="46" spans="1:20" s="11" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="19">
-        <v>44</v>
+      <c r="A46" s="24">
+        <v>43</v>
       </c>
       <c r="B46" s="13"/>
       <c r="C46" s="14"/>
       <c r="D46" s="20"/>
       <c r="E46" s="12">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F46" s="13"/>
       <c r="G46" s="14"/>
       <c r="H46" s="23"/>
       <c r="I46" s="12">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J46" s="13"/>
       <c r="K46" s="14"/>
       <c r="L46" s="20"/>
       <c r="M46" s="12">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N46" s="40"/>
       <c r="O46" s="27"/>
       <c r="P46" s="20"/>
       <c r="Q46" s="16">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="R46" s="31"/>
       <c r="S46" s="32"/>
@@ -2497,185 +2496,218 @@
     </row>
     <row r="47" spans="1:20" s="11" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="19">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B47" s="13"/>
       <c r="C47" s="14"/>
       <c r="D47" s="20"/>
       <c r="E47" s="12">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F47" s="13"/>
       <c r="G47" s="14"/>
       <c r="H47" s="23"/>
       <c r="I47" s="12">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J47" s="13"/>
       <c r="K47" s="14"/>
       <c r="L47" s="20"/>
       <c r="M47" s="12">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N47" s="40"/>
       <c r="O47" s="27"/>
       <c r="P47" s="20"/>
       <c r="Q47" s="16">
-        <v>237</v>
-      </c>
-      <c r="R47" s="41"/>
-      <c r="S47" s="42"/>
+        <v>236</v>
+      </c>
+      <c r="R47" s="31"/>
+      <c r="S47" s="32"/>
       <c r="T47" s="20"/>
     </row>
     <row r="48" spans="1:20" s="11" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="24">
-        <v>46</v>
+      <c r="A48" s="19">
+        <v>45</v>
       </c>
       <c r="B48" s="13"/>
       <c r="C48" s="14"/>
       <c r="D48" s="20"/>
       <c r="E48" s="12">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F48" s="13"/>
       <c r="G48" s="14"/>
       <c r="H48" s="23"/>
       <c r="I48" s="12">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J48" s="13"/>
       <c r="K48" s="14"/>
       <c r="L48" s="20"/>
       <c r="M48" s="12">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N48" s="40"/>
       <c r="O48" s="27"/>
       <c r="P48" s="20"/>
       <c r="Q48" s="16">
-        <v>238</v>
-      </c>
-      <c r="R48" s="31"/>
-      <c r="S48" s="32"/>
+        <v>237</v>
+      </c>
+      <c r="R48" s="41"/>
+      <c r="S48" s="42"/>
       <c r="T48" s="20"/>
     </row>
     <row r="49" spans="1:20" s="11" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="19">
-        <v>47</v>
+      <c r="A49" s="24">
+        <v>46</v>
       </c>
       <c r="B49" s="13"/>
       <c r="C49" s="14"/>
       <c r="D49" s="20"/>
       <c r="E49" s="12">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F49" s="13"/>
       <c r="G49" s="14"/>
       <c r="H49" s="23"/>
       <c r="I49" s="12">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J49" s="13"/>
       <c r="K49" s="14"/>
       <c r="L49" s="20"/>
       <c r="M49" s="12">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N49" s="40"/>
       <c r="O49" s="27"/>
       <c r="P49" s="20"/>
       <c r="Q49" s="16">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="R49" s="31"/>
       <c r="S49" s="32"/>
       <c r="T49" s="20"/>
     </row>
     <row r="50" spans="1:20" s="11" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="43">
-        <v>48</v>
+      <c r="A50" s="19">
+        <v>47</v>
       </c>
       <c r="B50" s="13"/>
       <c r="C50" s="14"/>
-      <c r="D50" s="44"/>
-      <c r="E50" s="33">
-        <v>96</v>
+      <c r="D50" s="20"/>
+      <c r="E50" s="12">
+        <v>95</v>
       </c>
       <c r="F50" s="13"/>
       <c r="G50" s="14"/>
-      <c r="H50" s="45"/>
-      <c r="I50" s="33">
-        <v>144</v>
+      <c r="H50" s="23"/>
+      <c r="I50" s="12">
+        <v>143</v>
       </c>
       <c r="J50" s="13"/>
       <c r="K50" s="14"/>
-      <c r="L50" s="44"/>
-      <c r="M50" s="33">
+      <c r="L50" s="20"/>
+      <c r="M50" s="12">
+        <v>191</v>
+      </c>
+      <c r="N50" s="40"/>
+      <c r="O50" s="27"/>
+      <c r="P50" s="20"/>
+      <c r="Q50" s="16">
+        <v>239</v>
+      </c>
+      <c r="R50" s="31"/>
+      <c r="S50" s="32"/>
+      <c r="T50" s="20"/>
+    </row>
+    <row r="51" spans="1:20" s="11" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="43">
+        <v>48</v>
+      </c>
+      <c r="B51" s="13"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="44"/>
+      <c r="E51" s="33">
+        <v>96</v>
+      </c>
+      <c r="F51" s="13"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="45"/>
+      <c r="I51" s="33">
+        <v>144</v>
+      </c>
+      <c r="J51" s="13"/>
+      <c r="K51" s="14"/>
+      <c r="L51" s="44"/>
+      <c r="M51" s="33">
         <v>192</v>
       </c>
-      <c r="N50" s="46"/>
-      <c r="O50" s="47"/>
-      <c r="P50" s="44"/>
-      <c r="Q50" s="48">
+      <c r="N51" s="46"/>
+      <c r="O51" s="47"/>
+      <c r="P51" s="44"/>
+      <c r="Q51" s="48">
         <v>240</v>
       </c>
-      <c r="R50" s="49"/>
-      <c r="S50" s="50"/>
-      <c r="T50" s="44"/>
-    </row>
-    <row r="51" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="52" t="s">
+      <c r="R51" s="49"/>
+      <c r="S51" s="50"/>
+      <c r="T51" s="44"/>
+    </row>
+    <row r="52" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="B51" s="52"/>
-      <c r="C51" s="52"/>
-      <c r="D51" s="52"/>
-      <c r="E51" s="52"/>
-      <c r="F51" s="52"/>
-      <c r="G51" s="52"/>
-      <c r="H51" s="52"/>
-      <c r="I51" s="52"/>
-      <c r="J51" s="52"/>
-      <c r="K51" s="52"/>
-      <c r="L51" s="52"/>
-      <c r="M51" s="52"/>
-      <c r="N51" s="52"/>
-      <c r="O51" s="52"/>
-      <c r="P51" s="52"/>
-      <c r="Q51" s="52"/>
-      <c r="R51" s="52"/>
-      <c r="S51" s="52"/>
-      <c r="T51" s="52"/>
-    </row>
-    <row r="52" spans="1:20" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="53" t="s">
+      <c r="B52" s="52"/>
+      <c r="C52" s="52"/>
+      <c r="D52" s="52"/>
+      <c r="E52" s="52"/>
+      <c r="F52" s="52"/>
+      <c r="G52" s="52"/>
+      <c r="H52" s="52"/>
+      <c r="I52" s="52"/>
+      <c r="J52" s="52"/>
+      <c r="K52" s="52"/>
+      <c r="L52" s="52"/>
+      <c r="M52" s="52"/>
+      <c r="N52" s="52"/>
+      <c r="O52" s="52"/>
+      <c r="P52" s="52"/>
+      <c r="Q52" s="52"/>
+      <c r="R52" s="52"/>
+      <c r="S52" s="52"/>
+      <c r="T52" s="52"/>
+    </row>
+    <row r="53" spans="1:20" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="B52" s="53"/>
-      <c r="C52" s="53"/>
-      <c r="D52" s="53"/>
-      <c r="E52" s="53"/>
-      <c r="F52" s="53"/>
-      <c r="G52" s="53"/>
-      <c r="H52" s="53"/>
-      <c r="I52" s="53"/>
-      <c r="J52" s="53"/>
-      <c r="K52" s="53"/>
-      <c r="L52" s="53"/>
-      <c r="M52" s="53"/>
-      <c r="N52" s="53"/>
-      <c r="O52" s="53"/>
-      <c r="P52" s="53"/>
-      <c r="Q52" s="53"/>
-      <c r="R52" s="53"/>
-      <c r="S52" s="53"/>
-      <c r="T52" s="53"/>
+      <c r="B53" s="53"/>
+      <c r="C53" s="53"/>
+      <c r="D53" s="53"/>
+      <c r="E53" s="53"/>
+      <c r="F53" s="53"/>
+      <c r="G53" s="53"/>
+      <c r="H53" s="53"/>
+      <c r="I53" s="53"/>
+      <c r="J53" s="53"/>
+      <c r="K53" s="53"/>
+      <c r="L53" s="53"/>
+      <c r="M53" s="53"/>
+      <c r="N53" s="53"/>
+      <c r="O53" s="53"/>
+      <c r="P53" s="53"/>
+      <c r="Q53" s="53"/>
+      <c r="R53" s="53"/>
+      <c r="S53" s="53"/>
+      <c r="T53" s="53"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
+    <mergeCell ref="A2:T2"/>
+    <mergeCell ref="A52:T52"/>
+    <mergeCell ref="A53:T53"/>
     <mergeCell ref="A1:T1"/>
-    <mergeCell ref="A51:T51"/>
-    <mergeCell ref="A52:T52"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="86" orientation="landscape" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/static/agree.xlsx
+++ b/static/agree.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC4AD3A4-4D56-4B34-AD05-906BDFDC78E1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18154F7E-D769-4C34-8D7B-19C11E0F6991}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -521,7 +521,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -659,6 +659,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -981,7 +984,7 @@
   <dimension ref="A1:T53"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2014,7 +2017,7 @@
       <c r="S31" s="32"/>
       <c r="T31" s="20"/>
     </row>
-    <row r="32" spans="1:20" s="11" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" s="11" customFormat="1" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="19">
         <v>29</v>
       </c>
@@ -2046,11 +2049,11 @@
       <c r="S32" s="32"/>
       <c r="T32" s="20"/>
     </row>
-    <row r="33" spans="1:20" s="11" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20" s="11" customFormat="1" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="19">
         <v>30</v>
       </c>
-      <c r="B33" s="35"/>
+      <c r="B33" s="55"/>
       <c r="C33" s="39"/>
       <c r="D33" s="20"/>
       <c r="E33" s="12">
@@ -2078,7 +2081,7 @@
       <c r="S33" s="32"/>
       <c r="T33" s="20"/>
     </row>
-    <row r="34" spans="1:20" s="11" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20" s="11" customFormat="1" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="38">
         <v>31</v>
       </c>
